--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>дата</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>21/06/2018</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>механічна поломка1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -248,12 +269,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,6 +277,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -49361,16 +49382,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2001"/>
+  <dimension ref="A1:E1995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="13" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="18" width="22"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="22"/>
     <col customWidth="1" max="3" min="3" style="13" width="30"/>
     <col customWidth="1" max="4" min="4" style="13" width="34.5703125"/>
   </cols>
@@ -49379,7 +49400,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -49393,7 +49414,7 @@
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -50338,45 +50359,174 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="1997" spans="1:5">
-      <c r="C1997" s="13" t="n">
+    <row r="1991" spans="1:5">
+      <c r="C1991" s="13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1998" spans="1:5">
-      <c r="A1998" s="13" t="n">
+    <row r="1992" spans="1:5">
+      <c r="A1992" s="13" t="n">
         <v>400001370</v>
       </c>
-      <c r="B1998" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1998" s="13" t="n">
+      <c r="B1992" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1992" s="13" t="n">
         <v>119000</v>
       </c>
     </row>
-    <row r="1999" spans="1:5">
-      <c r="A1999" s="13" t="n">
+    <row r="1993" spans="1:5">
+      <c r="A1993" s="13" t="n">
         <v>400001964</v>
       </c>
-      <c r="B1999" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1999" s="13" t="n">
+      <c r="B1993" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1993" s="13" t="n">
         <v>120000</v>
       </c>
     </row>
-    <row r="2001" spans="1:5">
-      <c r="A2001" s="8">
-        <f>COUNT(A3:A2000)</f>
-        <v/>
-      </c>
-      <c r="B2001" s="19" t="n"/>
-      <c r="C2001" s="8" t="n"/>
-      <c r="E2001">
-        <f>#REF!/A2001</f>
+    <row r="1995" spans="1:5">
+      <c r="A1995" s="8">
+        <f>COUNT(A3:A1994)</f>
+        <v/>
+      </c>
+      <c r="B1995" s="17" t="n"/>
+      <c r="C1995" s="8" t="n"/>
+      <c r="E1995">
+        <f>#REF!/A1995</f>
         <v/>
       </c>
     </row>

--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>дата</t>
   </si>
@@ -90,6 +90,60 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>buffer txt file</t>
+  </si>
+  <si>
+    <t>buffer txt file 2</t>
+  </si>
+  <si>
+    <t>механічна поломка</t>
+  </si>
+  <si>
+    <t>електрична поломка</t>
+  </si>
+  <si>
+    <t>scaner</t>
+  </si>
+  <si>
+    <t>CPU 2000</t>
+  </si>
+  <si>
+    <t>СPU 2000</t>
+  </si>
+  <si>
+    <t>інший тип простою</t>
+  </si>
+  <si>
+    <t>налаштування принтера</t>
+  </si>
+  <si>
+    <t>втулочний модуль</t>
+  </si>
+  <si>
+    <t>налаштування втулочного модуля</t>
+  </si>
+  <si>
+    <t>ПЗ</t>
+  </si>
+  <si>
+    <t>ТО обладнання</t>
+  </si>
+  <si>
+    <t>механічне налаштування</t>
+  </si>
+  <si>
+    <t>заміна запчастин</t>
+  </si>
+  <si>
+    <t>налаштування симетричності розрізу</t>
+  </si>
+  <si>
+    <t>ТО аплікатора</t>
+  </si>
+  <si>
+    <t>очікування тех.відділу</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -50484,10 +50538,286 @@
       <c r="C97" t="s">
         <v>23</v>
       </c>
-      <c r="D97" t="s"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" t="s"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
         <v>6</v>
       </c>
     </row>
@@ -50501,7 +50831,7 @@
         <v>400001370</v>
       </c>
       <c r="B1992" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C1992" s="13" t="n">
         <v>119000</v>
@@ -50512,7 +50842,7 @@
         <v>400001964</v>
       </c>
       <c r="B1993" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C1993" s="13" t="n">
         <v>120000</v>

--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>дата</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>очікування тех.відділу</t>
+  </si>
+  <si>
+    <t>6366</t>
+  </si>
+  <si>
+    <t>test with new user</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -49438,7 +49447,7 @@
   </sheetPr>
   <dimension ref="A1:E1995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
@@ -49446,7 +49455,7 @@
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="13" width="10.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="22"/>
-    <col customWidth="1" max="3" min="3" style="13" width="30"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="13" width="35.7109375"/>
     <col customWidth="1" max="4" min="4" style="13" width="34.5703125"/>
   </cols>
   <sheetData>
@@ -50814,10 +50823,51 @@
       <c r="C121" t="s">
         <v>42</v>
       </c>
-      <c r="D121" t="s"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
         <v>6</v>
       </c>
     </row>
@@ -50831,7 +50881,7 @@
         <v>400001370</v>
       </c>
       <c r="B1992" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1992" s="13" t="n">
         <v>119000</v>
@@ -50842,7 +50892,7 @@
         <v>400001964</v>
       </c>
       <c r="B1993" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1993" s="13" t="n">
         <v>120000</v>

--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>дата</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>23/07/2018</t>
+  </si>
+  <si>
+    <t>24/07/2018</t>
+  </si>
+  <si>
+    <t>testttt</t>
+  </si>
+  <si>
+    <t>25/07/2018</t>
+  </si>
+  <si>
+    <t>tesst</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>test with summary of week data</t>
+  </si>
+  <si>
+    <t>test of data sent applicator</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -50868,6 +50892,229 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>49</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
         <v>6</v>
       </c>
     </row>
@@ -50881,7 +51128,7 @@
         <v>400001370</v>
       </c>
       <c r="B1992" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1992" s="13" t="n">
         <v>119000</v>
@@ -50892,7 +51139,7 @@
         <v>400001964</v>
       </c>
       <c r="B1993" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C1993" s="13" t="n">
         <v>120000</v>

--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>дата</t>
   </si>
@@ -53,76 +53,25 @@
     <t>111</t>
   </si>
   <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
     <t>3012</t>
   </si>
   <si>
-    <t>проблеми з матеріалом</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>19/06/2018</t>
-  </si>
-  <si>
-    <t>20/06/2018</t>
-  </si>
-  <si>
-    <t>21/06/2018</t>
-  </si>
-  <si>
-    <t>04/07/2018</t>
+    <t>налаштування симетричності розрізу</t>
   </si>
   <si>
     <t>3067</t>
   </si>
   <si>
-    <t>rest</t>
+    <t>заміна запчастин</t>
   </si>
   <si>
-    <t>pp</t>
+    <t>ghj</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>механічна поломка1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>buffer txt file</t>
-  </si>
-  <si>
-    <t>buffer txt file 2</t>
-  </si>
-  <si>
-    <t>механічна поломка</t>
-  </si>
-  <si>
-    <t>електрична поломка</t>
-  </si>
-  <si>
-    <t>scaner</t>
-  </si>
-  <si>
-    <t>CPU 2000</t>
-  </si>
-  <si>
-    <t>СPU 2000</t>
-  </si>
-  <si>
-    <t>інший тип простою</t>
-  </si>
-  <si>
-    <t>налаштування принтера</t>
-  </si>
-  <si>
-    <t>втулочний модуль</t>
-  </si>
-  <si>
-    <t>налаштування втулочного модуля</t>
+    <t>ТО аплікатора</t>
   </si>
   <si>
     <t>ПЗ</t>
@@ -131,52 +80,13 @@
     <t>ТО обладнання</t>
   </si>
   <si>
-    <t>механічне налаштування</t>
+    <t>електрична поломка</t>
   </si>
   <si>
-    <t>заміна запчастин</t>
+    <t>інший тип простою</t>
   </si>
   <si>
-    <t>налаштування симетричності розрізу</t>
-  </si>
-  <si>
-    <t>ТО аплікатора</t>
-  </si>
-  <si>
-    <t>очікування тех.відділу</t>
-  </si>
-  <si>
-    <t>6366</t>
-  </si>
-  <si>
-    <t>test with new user</t>
-  </si>
-  <si>
-    <t>05/07/2018</t>
-  </si>
-  <si>
-    <t>23/07/2018</t>
-  </si>
-  <si>
-    <t>24/07/2018</t>
-  </si>
-  <si>
-    <t>testttt</t>
-  </si>
-  <si>
-    <t>25/07/2018</t>
-  </si>
-  <si>
-    <t>tesst</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>test with summary of week data</t>
-  </si>
-  <si>
-    <t>test of data sent applicator</t>
+    <t>проблеми з матеріалом</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -49469,10 +49379,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1995"/>
+  <dimension ref="A1:E1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -49511,1649 +49421,170 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D13" t="s"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5">
+      <c r="C1828" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5">
+      <c r="A1829" s="13" t="n">
+        <v>400001370</v>
+      </c>
+      <c r="B1829" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>18</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>18</v>
-      </c>
-      <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C1829" s="13" t="n">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5">
+      <c r="A1830" s="13" t="n">
+        <v>400001964</v>
+      </c>
+      <c r="B1830" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>18</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>18</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>18</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" t="s">
-        <v>43</v>
-      </c>
-      <c r="C122" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>45</v>
-      </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" t="s">
-        <v>41</v>
-      </c>
-      <c r="D124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>42</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>47</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>47</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>38</v>
-      </c>
-      <c r="D127" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>49</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>36</v>
-      </c>
-      <c r="D128" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>32</v>
-      </c>
-      <c r="D129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>32</v>
-      </c>
-      <c r="D130" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>49</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D131" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>49</v>
-      </c>
-      <c r="B132" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>49</v>
-      </c>
-      <c r="B134" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>49</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>49</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>49</v>
-      </c>
-      <c r="B137" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>49</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>49</v>
-      </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>32</v>
-      </c>
-      <c r="D139" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>49</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" t="s">
-        <v>36</v>
-      </c>
-      <c r="D140" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>49</v>
-      </c>
-      <c r="B141" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:5">
-      <c r="C1991" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:5">
-      <c r="A1992" s="13" t="n">
-        <v>400001370</v>
-      </c>
-      <c r="B1992" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1992" s="13" t="n">
-        <v>119000</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:5">
-      <c r="A1993" s="13" t="n">
-        <v>400001964</v>
-      </c>
-      <c r="B1993" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1993" s="13" t="n">
+      <c r="C1830" s="13" t="n">
         <v>120000</v>
       </c>
     </row>
-    <row r="1995" spans="1:5">
-      <c r="A1995" s="8">
-        <f>COUNT(A3:A1994)</f>
-        <v/>
-      </c>
-      <c r="B1995" s="17" t="n"/>
-      <c r="C1995" s="8" t="n"/>
-      <c r="E1995">
-        <f>#REF!/A1995</f>
+    <row r="1832" spans="1:5">
+      <c r="A1832" s="8">
+        <f>COUNT(A3:A1831)</f>
+        <v/>
+      </c>
+      <c r="B1832" s="17" t="n"/>
+      <c r="C1832" s="8" t="n"/>
+      <c r="E1832">
+        <f>#REF!/A1832</f>
         <v/>
       </c>
     </row>

--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>дата</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>проблеми з матеріалом</t>
+  </si>
+  <si>
+    <t>11/08/2018</t>
+  </si>
+  <si>
+    <t>еен</t>
+  </si>
+  <si>
+    <t>заміна запчастин в аплікаторі</t>
+  </si>
+  <si>
+    <t>механічне налаштування</t>
+  </si>
+  <si>
+    <t>налаштування втулочного модуля</t>
+  </si>
+  <si>
+    <t>налаштування принтера</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -49542,10 +49560,134 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -49559,7 +49701,7 @@
         <v>400001370</v>
       </c>
       <c r="B1829" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C1829" s="13" t="n">
         <v>119000</v>
@@ -49570,7 +49712,7 @@
         <v>400001964</v>
       </c>
       <c r="B1830" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1830" s="13" t="n">
         <v>120000</v>

--- a/files/eq_files/80001841.xlsx
+++ b/files/eq_files/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>дата</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>налаштування принтера</t>
+  </si>
+  <si>
+    <t>15/08/2018</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>02/01/2019</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>scaner</t>
+  </si>
+  <si>
+    <t>механічна поломка</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -49684,10 +49702,291 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>6</v>
       </c>
     </row>
@@ -49701,7 +50000,7 @@
         <v>400001370</v>
       </c>
       <c r="B1829" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C1829" s="13" t="n">
         <v>119000</v>
@@ -49712,7 +50011,7 @@
         <v>400001964</v>
       </c>
       <c r="B1830" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1830" s="13" t="n">
         <v>120000</v>
